--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\go\src\openscore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC9C18E-033B-4D98-BACD-8E323984D154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F4CCA5-F0F2-42B5-A193-ED90014D3784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16200,15 +16200,15 @@
 </t>
   </si>
   <si>
-    <t>11---19</t>
+    <t>都要做，保证试验准确性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11---20</t>
+    <t>22---30</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>都要做，保证试验准确性</t>
+    <t>22---31</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -34197,7 +34197,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
@@ -34216,10 +34216,10 @@
         <v>2135</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="E1" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -34236,7 +34236,7 @@
         <v>4186</v>
       </c>
       <c r="E2" t="s">
-        <v>4204</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="262.2">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\go\src\openscore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yang\Desktop\阅卷系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F4CCA5-F0F2-42B5-A193-ED90014D3784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -16204,18 +16203,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>22---30</t>
+    <t>87---108</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>22---31</t>
+    <t>87---109</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -16645,7 +16644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S500"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="74" workbookViewId="0">
@@ -34178,7 +34177,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K500">
+  <sortState ref="A2:K500">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -34193,11 +34192,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -16203,11 +16203,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>87---108</t>
+    <t>91---116</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>87---109</t>
+    <t>91---117</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -34196,7 +34196,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L3" sqref="L3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yang\Desktop\阅卷系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\go\src\openscore\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7AB2EA-80EE-4102-9B62-BA0BBDF19777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -16203,18 +16204,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>87---108</t>
+    <t>90---114</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>87---109</t>
+    <t>90---115</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -16644,11 +16645,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S500"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="74" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="A58" zoomScale="74" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
@@ -34177,7 +34178,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K500">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K500">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -34192,11 +34193,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -19,19 +19,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5042" uniqueCount="4205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5202" uniqueCount="4205">
   <si>
     <t>1_问题5</t>
   </si>
@@ -16203,11 +16201,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>91---116</t>
+    <t>92---118</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>91---117</t>
+    <t>92---119</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -16337,7 +16335,14 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -16647,8 +16652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S500"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="74" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="A45" zoomScale="74" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
@@ -34182,7 +34187,7 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:L1 T1:XFD1 A2:XFD1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula xml:space="preserve"> LEN(A1)&gt;2999</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34193,10 +34198,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:M3"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
@@ -34374,8 +34379,693 @@
         <v>4201</v>
       </c>
     </row>
+    <row r="11" spans="1:5" ht="96.6">
+      <c r="A11" s="7">
+        <v>90000101410</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7">
+        <v>90000101411</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="372.6">
+      <c r="A13" s="7">
+        <v>90000101412</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="69">
+      <c r="A14" s="7">
+        <v>90000101413</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="55.2">
+      <c r="A15" s="7">
+        <v>90000101414</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="82.8">
+      <c r="A16" s="7">
+        <v>90000101415</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="248.4">
+      <c r="A17" s="7">
+        <v>90000101416</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="220.8">
+      <c r="A18" s="7">
+        <v>90000101417</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="110.4">
+      <c r="A19" s="7">
+        <v>90000101418</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="207">
+      <c r="A20" s="7">
+        <v>90000101419</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="193.2">
+      <c r="A21" s="7">
+        <v>90000101420</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="303.60000000000002">
+      <c r="A22" s="7">
+        <v>90000101421</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="96.6">
+      <c r="A23" s="7">
+        <v>90000101422</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="69">
+      <c r="A24" s="7">
+        <v>90000101423</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="331.2">
+      <c r="A25" s="7">
+        <v>90000101424</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="234.6">
+      <c r="A26" s="7">
+        <v>90000101425</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="220.8">
+      <c r="A27" s="7">
+        <v>90000101426</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="7">
+        <v>90000101427</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="124.2">
+      <c r="A29" s="7">
+        <v>90000101428</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="262.2">
+      <c r="A30" s="7">
+        <v>90000101429</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="207">
+      <c r="A31" s="7">
+        <v>90000101430</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="124.2">
+      <c r="A32" s="7">
+        <v>90000101431</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="193.2">
+      <c r="A33" s="7">
+        <v>90000101432</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="409.6">
+      <c r="A34" s="7">
+        <v>90000101433</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="165.6">
+      <c r="A35" s="7">
+        <v>90000101434</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="386.4">
+      <c r="A36" s="7">
+        <v>90000101435</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="124.2">
+      <c r="A37" s="7">
+        <v>90000101436</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="179.4">
+      <c r="A38" s="7">
+        <v>90000101438</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="55.2">
+      <c r="A39" s="7">
+        <v>90000101439</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="193.2">
+      <c r="A40" s="7">
+        <v>90000101440</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="262.2">
+      <c r="A41" s="7">
+        <v>90000101441</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="193.2">
+      <c r="A42" s="7">
+        <v>90000101442</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="234.6">
+      <c r="A43" s="7">
+        <v>90000101501</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="276">
+      <c r="A44" s="7">
+        <v>90000101502</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="151.80000000000001">
+      <c r="A45" s="7">
+        <v>90000101503</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="55.2">
+      <c r="A46" s="7">
+        <v>90000101504</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="124.2">
+      <c r="A47" s="7">
+        <v>90000101505</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="96.6">
+      <c r="A48" s="7">
+        <v>90000101506</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="110.4">
+      <c r="A49" s="7">
+        <v>90000101507</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="276">
+      <c r="A50" s="7">
+        <v>90000101508</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>2612</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A11:E50">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula xml:space="preserve"> LEN(A11)&gt;2999</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
